--- a/WIQPM2_0317/WIQPM2.xlsx
+++ b/WIQPM2_0317/WIQPM2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>P1</t>
   </si>
@@ -53,31 +53,13 @@
     <t>SJF</t>
   </si>
   <si>
-    <t>10, 45</t>
-  </si>
-  <si>
-    <t>0, 40</t>
-  </si>
-  <si>
     <t>15, 5</t>
   </si>
   <si>
     <t>26, 16</t>
   </si>
   <si>
-    <t>20, 50</t>
-  </si>
-  <si>
-    <t>30, 66</t>
-  </si>
-  <si>
     <t>AVG idő</t>
-  </si>
-  <si>
-    <t>0, 30</t>
-  </si>
-  <si>
-    <t>8, 20</t>
   </si>
   <si>
     <t>AVG vár.</t>
@@ -95,19 +77,10 @@
     <t>Segéd</t>
   </si>
   <si>
-    <t>10, 44</t>
-  </si>
-  <si>
-    <t>30, 76</t>
-  </si>
-  <si>
     <t>36, 26</t>
   </si>
   <si>
     <t>14, 4</t>
-  </si>
-  <si>
-    <t>9, 20</t>
   </si>
   <si>
     <t>Indulás1</t>
@@ -142,13 +115,34 @@
   <si>
     <t>Átlag körf.</t>
   </si>
+  <si>
+    <t>10, 22</t>
+  </si>
+  <si>
+    <t>0, 8</t>
+  </si>
+  <si>
+    <t>11, 10</t>
+  </si>
+  <si>
+    <t>0, 7</t>
+  </si>
+  <si>
+    <t>0, 18</t>
+  </si>
+  <si>
+    <t>23, 43</t>
+  </si>
+  <si>
+    <t>32, 58</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -189,10 +183,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -530,11 +524,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="501436056"/>
-        <c:axId val="501436448"/>
+        <c:axId val="459470304"/>
+        <c:axId val="459468344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501436056"/>
+        <c:axId val="459470304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501436448"/>
+        <c:crossAx val="459468344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501436448"/>
+        <c:axId val="459468344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501436056"/>
+        <c:crossAx val="459470304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -965,11 +959,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="501441152"/>
-        <c:axId val="501439192"/>
+        <c:axId val="459472264"/>
+        <c:axId val="459468736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501441152"/>
+        <c:axId val="459472264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501439192"/>
+        <c:crossAx val="459468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501439192"/>
+        <c:axId val="459468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501441152"/>
+        <c:crossAx val="459472264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1285,10 +1279,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,13 +1465,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1592,11 +1586,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="501437624"/>
-        <c:axId val="501432528"/>
+        <c:axId val="459473440"/>
+        <c:axId val="459473832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501437624"/>
+        <c:axId val="459473440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501432528"/>
+        <c:crossAx val="459473832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1647,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501432528"/>
+        <c:axId val="459473832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501437624"/>
+        <c:crossAx val="459473440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1975,10 +1969,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,13 +2155,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2282,11 +2276,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="444293168"/>
-        <c:axId val="444293560"/>
+        <c:axId val="458545784"/>
+        <c:axId val="458544608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444293168"/>
+        <c:axId val="458545784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444293560"/>
+        <c:crossAx val="458544608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444293560"/>
+        <c:axId val="458544608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444293168"/>
+        <c:crossAx val="458545784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -5182,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,12 +5233,12 @@
       <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5293,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -5343,19 +5337,19 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O3">
         <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q3">
         <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="S3">
         <v>5</v>
@@ -5405,19 +5399,19 @@
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="O4">
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -5426,10 +5420,10 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V4">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -5467,28 +5461,28 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="O5">
         <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5537,19 +5531,19 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5558,10 +5552,10 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -5569,28 +5563,28 @@
         <v>8</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="S7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -5598,39 +5592,39 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B6:E6)</f>
         <v>11.25</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <f>AVERAGE(H6:K6)</f>
         <v>7.25</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <f>AVERAGE(N7:Q7)</f>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5646,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,12 +5668,12 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5698,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -5718,19 +5712,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5750,19 +5744,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -5771,16 +5765,17 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>76</v>
+        <f>14+8+36+10</f>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5788,28 +5783,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5820,30 +5815,36 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <f>AVERAGE(B6:E6)</f>
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -5851,34 +5852,34 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="2">
-        <f>(M4-(M4-SUM(G2:J3))-(0.1*5))/M4</f>
-        <v>0.88815789473684215</v>
+        <v>29</v>
+      </c>
+      <c r="L11" s="1">
+        <f>(M4-(0.1*9))/M4</f>
+        <v>0.98676470588235288</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <f>(SUM(G2:J3)+SUM(G4:J5))/4</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
